--- a/output-2/drone-polysemi/adatrans/train_history_adatrans.xlsx
+++ b/output-2/drone-polysemi/adatrans/train_history_adatrans.xlsx
@@ -728,58 +728,254 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.776834</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
+          <t>0.793792</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.802721</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.829563</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.847076</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.843356</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.852264</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.855863</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.838562</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.855193</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.859742</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.869697</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.872837</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.844146</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.873772</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.843631</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.873112</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.862595</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.875283</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.864536</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.874152</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.851682</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.862805</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.859911</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.873772</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.874622</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.86319</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.854753</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.863463</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.864329</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.859985</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.862805</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.862805</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.873112</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0.871601</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.863463</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0.873112</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.858006</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.862538</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.865559</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0.864048</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0.874622</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>0.864048</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>0.864048</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0.874622</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>0.873772</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>0.873772</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0.873772</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>0.873112</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>0.873112</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>0.873112</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -804,252 +1000,252 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860798</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85822</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870658</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865227</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863354</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879518</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853916</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.889717</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.892857</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885757</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881639</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.878604</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865356</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872111</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87632</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881737</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879336</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879939</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890578</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869565</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884323</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879087</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877567</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876524</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882801</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876133</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882842</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882221</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890208</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880899</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876795</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87632</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882487</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879271</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868966</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879271</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881639</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881639</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88079</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88079</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880121</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880121</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880121</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880121</t>
         </is>
       </c>
     </row>
@@ -1348,252 +1544,252 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.779661</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.797267</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.835067</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850625</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861379</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853532</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839672</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850148</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8362</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854369</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851991</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859715</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861862</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847232</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881657</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844646</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865067</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857353</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85544</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845867</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846901</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863738</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865782</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.873323</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870139</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861492</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869894</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881913</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866716</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872102</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880845</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879336</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884528</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.86852</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866616</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864143</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869695</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856089</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858198</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868148</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868792</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885023</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844675</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844675</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85503</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85503</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85503</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872781</t>
         </is>
       </c>
     </row>
@@ -2164,252 +2360,252 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.761398</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.831952</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847926</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.832013</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87738</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868421</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855807</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838415</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860395</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845503</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85061</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865312</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849584</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857571</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842825</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847148</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844854</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.841065</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850575</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858868</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846505</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845627</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847041</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836336</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847148</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863807</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848024</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842963</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870482</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857573</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.843703</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.841065</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846037</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845392</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856712</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849923</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.827217</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.831668</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856278</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.843392</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846037</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846037</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846915</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846915</t>
         </is>
       </c>
     </row>
@@ -3252,252 +3448,252 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.782475</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.813559</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817301</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.813971</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.80924</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.809992</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.808801</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863014</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87519</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858006</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87218</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867669</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.823885</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84522</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842739</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834217</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840273</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866213</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849693</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842185</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84522</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836611</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.829707</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853253</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851064</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852584</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845455</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856061</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856061</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853232</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853232</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.835866</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854766</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854778</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85129</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856061</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83056</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85174</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854766</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83308</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854766</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.837879</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.826021</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836611</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836611</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.826021</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836611</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.837879</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.837879</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.837879</t>
         </is>
       </c>
     </row>
@@ -3524,58 +3720,254 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.721966</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
+          <t>0.767802</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.795489</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.86233</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.863568</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.857361</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.847483</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.85997</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.857356</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.824666</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.864291</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.871601</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.845638</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.867217</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.851096</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.856719</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.85994</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.853273</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.873134</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0.844078</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.877351</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.849028</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.847633</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.834575</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0.846792</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.847129</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0.846269</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.872837</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0.850488</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0.849478</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0.852853</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0.851991</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.852853</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0.851991</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>0.852434</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0.854354</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0.852434</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0.854354</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>0.855214</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>0.851351</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>0.851351</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>0.851351</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>0.852853</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>0.853713</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
